--- a/biology/Médecine/Méat_urétral/Méat_urétral.xlsx
+++ b/biology/Médecine/Méat_urétral/Méat_urétral.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9at_ur%C3%A9tral</t>
+          <t>Méat_urétral</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le méat urétral est l'orifice externe de l'urètre, situé chez l'homme au sommet du pénis et chez la femme au niveau de la partie antérieure de la vulve. C'est par le méat urétral que l'urine est éjectée lors de la miction dans les deux sexes, et que le sperme est émis lors de l'éjaculation chez l'homme.
  Portail de l’anatomie   Portail de la médecine                    </t>
